--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50DAC2-019F-408D-BEB2-1A81D97D939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C86A47-DD71-4935-9475-766742E01EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="16395" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_KTI" sheetId="70" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Инвойс_всего">Invoice_KTI!$H$40</definedName>
-    <definedName name="Инвойс_всего_п">Invoice_KTI!$H$103</definedName>
+    <definedName name="KTI_LOGO">Invoice_KTI!$B$2</definedName>
+    <definedName name="KTI_LOGO_п">Invoice_KTI!$B$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice_KTI!$A$1:$I$65</definedName>
+    <definedName name="Инвойс_всего">Invoice_KTI!#REF!</definedName>
+    <definedName name="Инвойс_всего_п">Invoice_KTI!#REF!</definedName>
     <definedName name="Инвойс_выгрузка_дата">Invoice_KTI!$C$17</definedName>
-    <definedName name="Инвойс_выгрузка_дата_п">Invoice_KTI!$C$80</definedName>
+    <definedName name="Инвойс_выгрузка_дата_п">Invoice_KTI!$C$49</definedName>
     <definedName name="Инвойс_дата">Invoice_KTI!$H$10</definedName>
-    <definedName name="Инвойс_дата_п">Invoice_KTI!$H$72</definedName>
+    <definedName name="Инвойс_дата_п">Invoice_KTI!$H$42</definedName>
     <definedName name="Инвойс_компания">Invoice_KTI!$C$10</definedName>
-    <definedName name="Инвойс_компания_п">Invoice_KTI!$C$74</definedName>
+    <definedName name="Инвойс_компания_п">Invoice_KTI!$C$43</definedName>
     <definedName name="Инвойс_контракт">Invoice_KTI!$C$12</definedName>
-    <definedName name="Инвойс_контракт_п">Invoice_KTI!$C$76</definedName>
-    <definedName name="Инвойс_массив">Invoice_KTI!$B$26</definedName>
-    <definedName name="Инвойс_массив_п">Invoice_KTI!$B$89</definedName>
+    <definedName name="Инвойс_контракт_п">Invoice_KTI!$C$45</definedName>
+    <definedName name="Инвойс_массив">Invoice_KTI!$B$25</definedName>
+    <definedName name="Инвойс_массив_п">Invoice_KTI!$B$57</definedName>
     <definedName name="Инвойс_номер">Invoice_KTI!$E$8</definedName>
-    <definedName name="Инвойс_номер_п">Invoice_KTI!$E$72</definedName>
+    <definedName name="Инвойс_номер_п">Invoice_KTI!$E$41</definedName>
+    <definedName name="Инвойс_п_граница">Invoice_KTI!$B$33</definedName>
+    <definedName name="Инвойс_печать">Invoice_KTI!$B$64</definedName>
     <definedName name="Инвойс_соглашение">Invoice_KTI!$C$21</definedName>
-    <definedName name="Инвойс_соглашение_п">Invoice_KTI!$C$84</definedName>
+    <definedName name="Инвойс_соглашение_п">Invoice_KTI!$C$53</definedName>
     <definedName name="Инвойс_таблица_заголовок">Invoice_KTI!$B$24</definedName>
-    <definedName name="Инвойс_таблица_заголовок_п">Invoice_KTI!$B$87</definedName>
+    <definedName name="Инвойс_таблица_заголовок_п">Invoice_KTI!$B$56</definedName>
     <definedName name="Инвойс_транспорт">Invoice_KTI!$C$19</definedName>
-    <definedName name="Инвойс_транспорт_п">Invoice_KTI!$C$82</definedName>
+    <definedName name="Инвойс_транспорт_п">Invoice_KTI!$C$51</definedName>
     <definedName name="Инвойсы_таблица_стоимость">Invoice_KTI!$G$24</definedName>
     <definedName name="Инвойсы_таблица_сумма">Invoice_KTI!$H$24</definedName>
   </definedNames>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE No. </t>
   </si>
@@ -89,9 +94,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t>Accepted and Confirmed by</t>
   </si>
   <si>
@@ -191,9 +193,6 @@
     <t>СРТМ "Си Хантер"  Икра минтая мороженая (MSC)</t>
   </si>
   <si>
-    <t>Итого:</t>
-  </si>
-  <si>
     <t>Принято и подтверждено</t>
   </si>
   <si>
@@ -228,22 +227,20 @@
   </si>
   <si>
     <t>$   21 323,00</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="170" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -318,13 +315,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -352,12 +342,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -405,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -434,19 +418,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -524,45 +495,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -571,18 +503,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,27 +552,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -624,60 +568,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -687,20 +602,8 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -709,107 +612,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -835,163 +700,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF16009D-7FAF-46EB-B76B-031F35176AFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="414338" y="47625"/>
-          <a:ext cx="638175" cy="404813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1014412</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD745CE9-5975-4978-9670-F3614487F1C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="638175" y="12244387"/>
-          <a:ext cx="638175" cy="404813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1029,7 +741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1135,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1277,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1289,10 +1001,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O118"/>
+  <dimension ref="B1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1301,8 +1013,8 @@
     <col min="2" max="2" width="16.3515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="6.234375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.1171875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.8203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.87890625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.5859375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.17578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.234375" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.234375" style="6" customWidth="1"/>
     <col min="9" max="9" width="2.3515625" style="6" customWidth="1"/>
@@ -2132,59 +1844,62 @@
   <sheetData>
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="22"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="22"/>
+      <c r="B6" s="15"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.4">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" ht="7.9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -2194,13 +1909,13 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="98">
+      <c r="G10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="40">
         <v>45079</v>
       </c>
-      <c r="I10" s="98"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
@@ -2211,38 +1926,38 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
@@ -2250,665 +1965,404 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:15" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B30" s="9"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="11.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="2:9" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="2:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:15" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:15" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="84" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="38"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="36"/>
-      <c r="K27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="O27" s="27"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="31"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="16"/>
-      <c r="K28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="O28" s="27"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="17"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="16"/>
-      <c r="K29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="O29" s="27"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="15"/>
-      <c r="C30" s="9"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="37"/>
-      <c r="K30" s="26"/>
-      <c r="M30" s="27"/>
-      <c r="O30" s="27"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="32"/>
-      <c r="C31" s="9"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="37"/>
-      <c r="K31" s="26"/>
-      <c r="M31" s="27"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="33"/>
-      <c r="C32" s="9"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="37"/>
-      <c r="K32" s="26"/>
-      <c r="M32" s="27"/>
-      <c r="O32" s="27"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
-      <c r="C33" s="9"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="32"/>
-      <c r="C34" s="9"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="33"/>
-      <c r="C35" s="9"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="9"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="34"/>
-      <c r="C37" s="9"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="33"/>
-      <c r="C38" s="9"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G39" s="73"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="9"/>
-      <c r="G40" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="58">
-        <v>4238.72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="9"/>
-      <c r="G41" s="73"/>
-    </row>
-    <row r="42" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="29"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+      <c r="B39" s="15"/>
+      <c r="C39" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.4">
+      <c r="B41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G42" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="55">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B47" s="11"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="39"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C68" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="40"/>
-    </row>
-    <row r="69" spans="2:9" ht="15" x14ac:dyDescent="0.4">
-      <c r="B69" s="22"/>
-      <c r="C69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="40"/>
-    </row>
-    <row r="70" spans="2:9" ht="15" x14ac:dyDescent="0.4">
-      <c r="B70" s="22"/>
-      <c r="C70" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="72" spans="2:9" ht="15" x14ac:dyDescent="0.4">
-      <c r="B72" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="86">
-        <v>45033</v>
-      </c>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="60"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="3"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+    </row>
+    <row r="56" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="28" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B84" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-    </row>
-    <row r="87" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H87" s="62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="15"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="2:9" s="51" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="94" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="95"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="53"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B90" s="56"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="57"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B91" s="17"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="54"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B93" s="56"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="57"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B94" s="46"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="16"/>
-    </row>
-    <row r="95" spans="2:9" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="54"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B96" s="56"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="57"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B97" s="47"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B99" s="46"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B101" s="17"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="16"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B102" s="49"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="75" t="s">
+    </row>
+    <row r="59" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B62" s="9"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="50">
-        <f>SUM(H90:H102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B104" s="9"/>
-      <c r="G104" s="73"/>
-    </row>
-    <row r="105" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="29"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B106" s="4" t="s">
+      <c r="G63" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B108" s="11"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B109" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H109" s="28"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="45"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B118" s="87"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="87"/>
-      <c r="F118" s="87"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="87"/>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B82:H82"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C86A47-DD71-4935-9475-766742E01EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0F367-4E38-4DDF-B553-46EAA75A0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="KTI_LOGO">Invoice_KTI!$B$2</definedName>
     <definedName name="KTI_LOGO_п">Invoice_KTI!$B$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice_KTI!$A$1:$I$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice_KTI!$A$1:$I$66</definedName>
     <definedName name="Инвойс_всего">Invoice_KTI!#REF!</definedName>
     <definedName name="Инвойс_всего_п">Invoice_KTI!#REF!</definedName>
     <definedName name="Инвойс_выгрузка_дата">Invoice_KTI!$C$17</definedName>
@@ -34,7 +34,7 @@
     <definedName name="Инвойс_номер">Invoice_KTI!$E$8</definedName>
     <definedName name="Инвойс_номер_п">Invoice_KTI!$E$41</definedName>
     <definedName name="Инвойс_п_граница">Invoice_KTI!$B$33</definedName>
-    <definedName name="Инвойс_печать">Invoice_KTI!$B$64</definedName>
+    <definedName name="Инвойс_печать">Invoice_KTI!$B$66</definedName>
     <definedName name="Инвойс_соглашение">Invoice_KTI!$C$21</definedName>
     <definedName name="Инвойс_соглашение_п">Invoice_KTI!$C$53</definedName>
     <definedName name="Инвойс_таблица_заголовок">Invoice_KTI!$B$24</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE No. </t>
   </si>
@@ -115,9 +115,6 @@
     <t>Request for payment for discharging operations</t>
   </si>
   <si>
-    <t xml:space="preserve"> DISCHARGING CHARGE</t>
-  </si>
-  <si>
     <t>Storage Servise contract № 410/33961105/0012 from February, 01, 2022</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Discharging Charge</t>
   </si>
 </sst>
 </file>
@@ -238,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+    <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -298,12 +298,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -389,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -492,9 +486,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -503,42 +495,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,12 +520,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,34 +536,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,21 +570,15 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,57 +586,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1003,8 +956,8 @@
   </sheetPr>
   <dimension ref="B1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1844,8 +1797,8 @@
   <sheetData>
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
-        <v>55</v>
+      <c r="B2" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
@@ -1859,7 +1812,7 @@
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -1873,17 +1826,17 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1847,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1910,12 +1863,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="40">
+        <v>50</v>
+      </c>
+      <c r="H10" s="45">
         <v>45079</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
@@ -1926,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1970,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="18"/>
@@ -1987,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2001,10 +1954,10 @@
     </row>
     <row r="21" spans="2:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2018,33 +1971,33 @@
     </row>
     <row r="23" spans="2:9" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="34" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="38" t="s">
+      <c r="B25" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2076,17 +2029,17 @@
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G32" s="46"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="11.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:9" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2097,7 +2050,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2107,50 +2060,50 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="56" t="s">
-        <v>55</v>
+      <c r="B37" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="15"/>
     </row>
     <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B41" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -2158,19 +2111,19 @@
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="55">
+      <c r="G42" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="43">
         <v>45033</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="I43" s="33"/>
     </row>
@@ -2180,10 +2133,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2204,10 +2157,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -2218,10 +2171,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="18"/>
@@ -2235,10 +2188,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="18"/>
@@ -2252,10 +2205,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2277,34 +2230,34 @@
       <c r="H55" s="31"/>
     </row>
     <row r="56" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="35" t="s">
+      <c r="H56" s="34" t="s">
         <v>49</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="28" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="53"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2323,12 +2276,17 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="H63" s="19"/>
+    </row>
+    <row r="66" spans="2:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="23"/>
@@ -2340,22 +2298,21 @@
       <c r="H81" s="27"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B24:F24"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G37:H37"/>

--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0F367-4E38-4DDF-B553-46EAA75A0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C8680D-6BBE-409B-9A7F-2A73F197C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
@@ -33,6 +33,8 @@
     <definedName name="Инвойс_массив_п">Invoice_KTI!$B$57</definedName>
     <definedName name="Инвойс_номер">Invoice_KTI!$E$8</definedName>
     <definedName name="Инвойс_номер_п">Invoice_KTI!$E$41</definedName>
+    <definedName name="Инвойс_объект">Invoice_KTI!$C$14</definedName>
+    <definedName name="Инвойс_объект_п">Invoice_KTI!$C$47</definedName>
     <definedName name="Инвойс_п_граница">Invoice_KTI!$B$33</definedName>
     <definedName name="Инвойс_печать">Invoice_KTI!$B$66</definedName>
     <definedName name="Инвойс_соглашение">Invoice_KTI!$C$21</definedName>
@@ -145,12 +147,6 @@
     <t>7, Чунг-Джанг-даэро, Юнг-Гу, Пусан, Республика Корея, (Юнганг-Донг-4га, КЁБО Б/Д 2Ф, 3Ф)</t>
   </si>
   <si>
-    <t>Тел.: 600-7475</t>
-  </si>
-  <si>
-    <t>Факс: 231-5222</t>
-  </si>
-  <si>
     <t xml:space="preserve">ПРОФОРМА ИНВОЙС № </t>
   </si>
   <si>
@@ -230,6 +226,12 @@
   </si>
   <si>
     <t>Discharging Charge</t>
+  </si>
+  <si>
+    <t>Тел.: 466-1401</t>
+  </si>
+  <si>
+    <t>Факс: 466-1404</t>
   </si>
 </sst>
 </file>
@@ -610,6 +612,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -625,9 +630,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -956,8 +958,8 @@
   </sheetPr>
   <dimension ref="B1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1798,7 +1800,7 @@
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
@@ -1826,17 +1828,17 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1863,12 +1865,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="45">
+        <v>48</v>
+      </c>
+      <c r="H10" s="46">
         <v>45079</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
@@ -1978,10 +1980,10 @@
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="51" t="s">
+      <c r="G24" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="45" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1994,10 +1996,10 @@
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
       <c r="G25" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2033,7 +2035,7 @@
     </row>
     <row r="33" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="11.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2061,49 +2063,49 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="15"/>
     </row>
     <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B41" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -2112,7 +2114,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G42" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H42" s="43">
         <v>45033</v>
@@ -2120,10 +2122,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I43" s="33"/>
     </row>
@@ -2133,10 +2135,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2157,10 +2159,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -2171,10 +2173,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="18"/>
@@ -2188,10 +2190,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="18"/>
@@ -2205,10 +2207,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2231,22 +2233,22 @@
     </row>
     <row r="56" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="28" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -2257,7 +2259,7 @@
     </row>
     <row r="58" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2276,16 +2278,16 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63" s="19"/>
     </row>
     <row r="66" spans="2:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.4">
@@ -2298,13 +2300,13 @@
       <c r="H81" s="27"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C8680D-6BBE-409B-9A7F-2A73F197C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FABC39E-2FD2-4269-A06E-1F033818AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16035" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_KTI" sheetId="70" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="KTI_LOGO">Invoice_KTI!$B$2</definedName>
     <definedName name="KTI_LOGO_п">Invoice_KTI!$B$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice_KTI!$A$1:$I$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice_KTI!$A$1:$I$71</definedName>
     <definedName name="Инвойс_всего">Invoice_KTI!#REF!</definedName>
     <definedName name="Инвойс_всего_п">Invoice_KTI!#REF!</definedName>
     <definedName name="Инвойс_выгрузка_дата">Invoice_KTI!$C$17</definedName>
@@ -36,7 +36,9 @@
     <definedName name="Инвойс_объект">Invoice_KTI!$C$14</definedName>
     <definedName name="Инвойс_объект_п">Invoice_KTI!$C$47</definedName>
     <definedName name="Инвойс_п_граница">Invoice_KTI!$B$33</definedName>
-    <definedName name="Инвойс_печать">Invoice_KTI!$B$66</definedName>
+    <definedName name="Инвойс_перевод_конец_п">Invoice_KTI!$B$69</definedName>
+    <definedName name="Инвойс_перевод_старт_п">Invoice_KTI!$B$66</definedName>
+    <definedName name="Инвойс_печать">Invoice_KTI!$B$71</definedName>
     <definedName name="Инвойс_соглашение">Invoice_KTI!$C$21</definedName>
     <definedName name="Инвойс_соглашение_п">Invoice_KTI!$C$53</definedName>
     <definedName name="Инвойс_таблица_заголовок">Invoice_KTI!$B$24</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE No. </t>
   </si>
@@ -232,6 +234,15 @@
   </si>
   <si>
     <t>Факс: 466-1404</t>
+  </si>
+  <si>
+    <t>Перевод осуществлен переводчиком Таранушко Натальей Ивановной,</t>
+  </si>
+  <si>
+    <t>Диплом ВСВ № 1853344, выдан 20.06.2006 г., Северный Международный Университет, г. Магадан</t>
+  </si>
+  <si>
+    <t>Подпись Таранушко Н. И.</t>
   </si>
 </sst>
 </file>
@@ -242,11 +253,19 @@
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -376,6 +395,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,39 +523,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -538,105 +561,113 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{156BA76C-6742-4160-954A-D0558E5179DE}"/>
     <cellStyle name="Обычный 3" xfId="6" xr:uid="{9614D98E-2F78-43A7-BC02-E013ED4FACC0}"/>
     <cellStyle name="Обычный 5" xfId="7" xr:uid="{9CE7B968-839A-4186-BEA9-9E0047086641}"/>
+    <cellStyle name="Обычный 5 2 2 2" xfId="8" xr:uid="{8918AC56-F3E0-4348-A855-A10C3EC07786}"/>
     <cellStyle name="Обычный_Лист1 2_Hong-Kong Снабжение 2" xfId="2" xr:uid="{61A0CD1A-29D1-4416-93F0-A4CB118EA012}"/>
     <cellStyle name="Обычный_Лист1 3 2" xfId="3" xr:uid="{BD549A16-FCCA-4D8F-90BF-33FE4372EC1A}"/>
     <cellStyle name="Обычный_Лист1 4" xfId="5" xr:uid="{CE28593A-A524-4A7B-8D76-7CEA3E5636EB}"/>
@@ -956,10 +987,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I82"/>
+  <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1828,17 +1859,17 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1867,10 +1898,10 @@
       <c r="G10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="47">
         <v>45079</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
@@ -2062,17 +2093,15 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="44" t="s">
-        <v>52</v>
-      </c>
+      <c r="B37" s="44"/>
       <c r="C37" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
@@ -2082,20 +2111,20 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="15"/>
     </row>
     <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.4">
@@ -2285,28 +2314,70 @@
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="66" spans="2:2" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="6" t="s">
+    <row r="65" spans="2:8" ht="89.35" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+    </row>
+    <row r="67" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+    </row>
+    <row r="71" spans="2:8" ht="3.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="27"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2314,14 +2385,14 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B87:H87"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FABC39E-2FD2-4269-A06E-1F033818AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25529047-EDBC-4ACE-AAB6-2C2B71AAE6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16035" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15436" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_KTI" sheetId="70" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Инвойс_выгрузка_дата">Invoice_KTI!$C$17</definedName>
     <definedName name="Инвойс_выгрузка_дата_п">Invoice_KTI!$C$49</definedName>
     <definedName name="Инвойс_дата">Invoice_KTI!$H$10</definedName>
-    <definedName name="Инвойс_дата_п">Invoice_KTI!$H$42</definedName>
+    <definedName name="Инвойс_дата_п">Invoice_KTI!$H$43</definedName>
     <definedName name="Инвойс_компания">Invoice_KTI!$C$10</definedName>
     <definedName name="Инвойс_компания_п">Invoice_KTI!$C$43</definedName>
     <definedName name="Инвойс_контракт">Invoice_KTI!$C$12</definedName>
@@ -143,9 +143,6 @@
     <t>Supplementary Agreement</t>
   </si>
   <si>
-    <t>KTI Компани Лимитед</t>
-  </si>
-  <si>
     <t>7, Чунг-Джанг-даэро, Юнг-Гу, Пусан, Республика Корея, (Юнганг-Донг-4га, КЁБО Б/Д 2Ф, 3Ф)</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>СРТМ "Си Хантер"  Икра минтая мороженая (MSC)</t>
   </si>
   <si>
-    <t>Принято и подтверждено</t>
-  </si>
-  <si>
     <t>Покупатель</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Подпись Таранушко Н. И.</t>
+  </si>
+  <si>
+    <t>КТИ Компани Лимитед</t>
+  </si>
+  <si>
+    <t>Принял и подтвердил</t>
   </si>
 </sst>
 </file>
@@ -644,6 +644,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -660,7 +661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,8 +989,8 @@
   </sheetPr>
   <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1831,7 +1831,7 @@
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
@@ -1859,17 +1859,17 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1896,12 +1896,12 @@
         <v>2</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="47">
+        <v>46</v>
+      </c>
+      <c r="H10" s="48">
         <v>45079</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
@@ -2012,7 +2012,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" s="45" t="s">
         <v>9</v>
@@ -2027,10 +2027,10 @@
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
       <c r="G25" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2066,13 +2066,13 @@
     </row>
     <row r="33" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="11.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:9" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2095,66 +2095,64 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="44"/>
       <c r="C37" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C38" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B39" s="15"/>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="15"/>
     </row>
     <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.4">
       <c r="B41" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="43">
-        <v>45033</v>
-      </c>
-    </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>30</v>
+      <c r="G43" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="43">
+        <v>45033</v>
       </c>
       <c r="I43" s="33"/>
     </row>
@@ -2164,10 +2162,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2188,10 +2186,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -2202,10 +2200,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="18"/>
@@ -2219,10 +2217,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="18"/>
@@ -2236,10 +2234,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2262,22 +2260,22 @@
     </row>
     <row r="56" spans="2:9" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="28" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -2288,7 +2286,7 @@
     </row>
     <row r="58" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2307,35 +2305,35 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H63" s="19"/>
     </row>
     <row r="65" spans="2:8" ht="89.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
+      <c r="B66" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
+      <c r="B67" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
     </row>
     <row r="68" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="46"/>
@@ -2346,19 +2344,19 @@
       <c r="G68" s="46"/>
     </row>
     <row r="69" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
+      <c r="B69" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
     </row>
     <row r="71" spans="2:8" ht="3.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.4">
@@ -2371,13 +2369,13 @@
       <c r="H86" s="27"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/templates/Invoice_KTI_Discharge.xlsx
+++ b/templates/Invoice_KTI_Discharge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25529047-EDBC-4ACE-AAB6-2C2B71AAE6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FF5EF-6574-456F-940A-492AC56B002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15436" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="27076" windowHeight="16636" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_KTI" sheetId="70" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <definedName name="Инвойс_выгрузка_дата_п">Invoice_KTI!$C$49</definedName>
     <definedName name="Инвойс_дата">Invoice_KTI!$H$10</definedName>
     <definedName name="Инвойс_дата_п">Invoice_KTI!$H$43</definedName>
+    <definedName name="Инвойс_исполнитель_КИА">Invoice_KTI!$B$69</definedName>
+    <definedName name="Инвойс_исполнитель_ТНИ">Invoice_KTI!$B$67</definedName>
     <definedName name="Инвойс_компания">Invoice_KTI!$C$10</definedName>
     <definedName name="Инвойс_компания_п">Invoice_KTI!$C$43</definedName>
     <definedName name="Инвойс_контракт">Invoice_KTI!$C$12</definedName>
@@ -36,7 +38,7 @@
     <definedName name="Инвойс_объект">Invoice_KTI!$C$14</definedName>
     <definedName name="Инвойс_объект_п">Invoice_KTI!$C$47</definedName>
     <definedName name="Инвойс_п_граница">Invoice_KTI!$B$33</definedName>
-    <definedName name="Инвойс_перевод_конец_п">Invoice_KTI!$B$69</definedName>
+    <definedName name="Инвойс_перевод_конец_п">Invoice_KTI!$B$70</definedName>
     <definedName name="Инвойс_перевод_старт_п">Invoice_KTI!$B$66</definedName>
     <definedName name="Инвойс_печать">Invoice_KTI!$B$71</definedName>
     <definedName name="Инвойс_соглашение">Invoice_KTI!$C$21</definedName>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE No. </t>
   </si>
@@ -230,19 +232,20 @@
     <t>Факс: 466-1404</t>
   </si>
   <si>
-    <t>Перевод осуществлен переводчиком Таранушко Натальей Ивановной,</t>
-  </si>
-  <si>
-    <t>Диплом ВСВ № 1853344, выдан 20.06.2006 г., Северный Международный Университет, г. Магадан</t>
-  </si>
-  <si>
-    <t>Подпись Таранушко Н. И.</t>
-  </si>
-  <si>
     <t>КТИ Компани Лимитед</t>
   </si>
   <si>
     <t>Принял и подтвердил</t>
+  </si>
+  <si>
+    <t>Перевод осуществлен переводчиком Таранушко Натальей Ивановной,
+Диплом ВСВ № 1853344, выдан 20.06.2006 г., Северный Международный Университет, г. Магадан
+Подпись Таранушко Н. И.</t>
+  </si>
+  <si>
+    <t>Перевод осуществлен переводчиком Ким Ириной Александровной
+Диплом № 1049080000632, выдан 26.06.2024 г., Северо-Восточный Государственный Университет, г. Магадан.
+Подпись Ким И. А.</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +663,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -989,8 +1007,8 @@
   </sheetPr>
   <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2072,7 +2090,7 @@
     <row r="34" spans="2:9" ht="11.35" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="2:9" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2286,7 +2304,7 @@
     </row>
     <row r="58" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2312,10 +2330,10 @@
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="65" spans="2:8" ht="89.35" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" ht="57.85" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:8" ht="2.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C66" s="47"/>
       <c r="D66" s="47"/>
@@ -2324,37 +2342,42 @@
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
     </row>
-    <row r="67" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
+    <row r="67" spans="2:8" s="55" customFormat="1" ht="72.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="54"/>
     </row>
     <row r="68" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="46"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="46"/>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
     </row>
-    <row r="69" spans="2:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-    </row>
-    <row r="71" spans="2:8" ht="3.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" s="58" customFormat="1" ht="76.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+    </row>
+    <row r="70" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="20.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="6" t="s">
         <v>50</v>
       </c>
